--- a/01 Gantt Chart Sample.xlsx
+++ b/01 Gantt Chart Sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28125"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cebuinstituteoftechnology.sharepoint.com/sites/CSIT327-G2-1stSem2425/Class Materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ash\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{067D9D90-3972-4852-85D6-86A1F0800FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E42547-1A56-4A6F-A6E2-AF1A26FB6950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6C8612AF-AC9F-47E5-97F5-BEE5B3F3935B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6C8612AF-AC9F-47E5-97F5-BEE5B3F3935B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
-  <si>
-    <t>System Name: Recipe Sharing Community System</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="46">
   <si>
     <t>Members: Joseph Nino Amarillo, Emmanuel Dedumo, Ashley Josh Vequiso</t>
   </si>
@@ -154,13 +151,43 @@
       </rPr>
       <t>23/09/2024</t>
     </r>
+  </si>
+  <si>
+    <t>7. Create Figma</t>
+  </si>
+  <si>
+    <t>7.1 Login/Logout</t>
+  </si>
+  <si>
+    <t>7.2 Dashboard</t>
+  </si>
+  <si>
+    <t>7.6 Savings Goal</t>
+  </si>
+  <si>
+    <t>7.4 Profile</t>
+  </si>
+  <si>
+    <t>7.5 Expense Report</t>
+  </si>
+  <si>
+    <t>7.3 Add and Manage Expense</t>
+  </si>
+  <si>
+    <t>7.7 Forgot Password Page</t>
+  </si>
+  <si>
+    <t>7.8 Create Account</t>
+  </si>
+  <si>
+    <t>System Name: Student Expense Management System</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +237,35 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -255,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -346,12 +402,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -421,14 +553,36 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,9 +602,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -488,7 +642,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -594,7 +748,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -736,7 +890,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -744,23 +898,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEE28BF-3653-487B-ABAE-D8576A0DB2DF}">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="5" width="12.5703125" customWidth="1"/>
+    <col min="1" max="2" width="36.44140625" customWidth="1"/>
+    <col min="3" max="5" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44"/>
+      <c r="A1" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="45"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -775,10 +929,10 @@
       <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="44"/>
+      <c r="A2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="45"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -853,11 +1007,11 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -874,7 +1028,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="6"/>
       <c r="C8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -891,7 +1045,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="7"/>
       <c r="C9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -908,7 +1062,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="8"/>
       <c r="C10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -931,46 +1085,46 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="42" t="s">
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="42" t="s">
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="46"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="43"/>
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>15</v>
       </c>
       <c r="F12" s="12">
         <v>1</v>
@@ -1023,19 +1177,19 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>19</v>
-      </c>
       <c r="E13" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="20"/>
@@ -1056,19 +1210,19 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>19</v>
-      </c>
       <c r="E14" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="22"/>
@@ -1089,19 +1243,19 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="D15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>19</v>
-      </c>
       <c r="E15" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="20"/>
@@ -1122,19 +1276,19 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="D16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>19</v>
-      </c>
       <c r="E16" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -1155,19 +1309,19 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="D17" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>19</v>
-      </c>
       <c r="E17" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -1188,19 +1342,19 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="D18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>19</v>
-      </c>
       <c r="E18" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -1221,19 +1375,19 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="D19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>19</v>
-      </c>
       <c r="E19" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -1254,19 +1408,19 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="D20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>19</v>
-      </c>
       <c r="E20" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -1287,19 +1441,19 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="D21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>19</v>
-      </c>
       <c r="E21" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -1320,19 +1474,19 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="D22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>19</v>
-      </c>
       <c r="E22" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -1353,19 +1507,19 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="D23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>19</v>
-      </c>
       <c r="E23" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -1386,19 +1540,19 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="D24" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="28" t="s">
-        <v>19</v>
-      </c>
       <c r="E24" s="29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
@@ -1419,17 +1573,19 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="33" t="s">
+      <c r="D25" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="23" t="s">
         <v>32</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="23" t="s">
-        <v>33</v>
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
@@ -1450,17 +1606,19 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
@@ -1481,17 +1639,19 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="38"/>
+      <c r="D27" s="39" t="s">
+        <v>35</v>
+      </c>
       <c r="E27" s="40" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
@@ -1499,9 +1659,9 @@
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
       <c r="K27" s="38"/>
-      <c r="L27" s="41"/>
+      <c r="L27" s="31"/>
       <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
+      <c r="N27" s="46"/>
       <c r="O27" s="38"/>
       <c r="P27" s="38"/>
       <c r="Q27" s="38"/>
@@ -1511,50 +1671,301 @@
       <c r="U27" s="38"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
+      <c r="A28" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="49">
+        <v>45571</v>
+      </c>
+      <c r="D28" s="50">
+        <v>45579</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
+      <c r="A29" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="49">
+        <v>45571</v>
+      </c>
+      <c r="D29" s="50">
+        <v>45579</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="49">
+        <v>45571</v>
+      </c>
+      <c r="D30" s="50">
+        <v>45579</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="49">
+        <v>45571</v>
+      </c>
+      <c r="D31" s="50">
+        <v>45579</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="49">
+        <v>45574</v>
+      </c>
+      <c r="D32" s="50">
+        <v>45579</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="50">
+        <v>45576</v>
+      </c>
+      <c r="D33" s="50">
+        <v>45579</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="50">
+        <v>45578</v>
+      </c>
+      <c r="D34" s="50">
+        <v>45579</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="50">
+        <v>45578</v>
+      </c>
+      <c r="D35" s="50">
+        <v>45579</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="50">
+        <v>45578</v>
+      </c>
+      <c r="D36" s="50">
+        <v>45579</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1566,6 +1977,7 @@
     <mergeCell ref="J11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1714,12 +2126,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1728,14 +2134,43 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D08AC5F-492E-4A0A-9218-240F32F41F20}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D08AC5F-492E-4A0A-9218-240F32F41F20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9ed737b4-88ac-4996-b253-4b3010066cf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF91549C-21D9-41B9-BD65-69654B49B349}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE939D89-B64E-4D9C-83A0-BE33138990E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE939D89-B64E-4D9C-83A0-BE33138990E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF91549C-21D9-41B9-BD65-69654B49B349}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>